--- a/testData/CJMCASE/数字乡村接口自动化.xlsx
+++ b/testData/CJMCASE/数字乡村接口自动化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="8" activeTab="14"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="981">
   <si>
     <t>序号</t>
   </si>
@@ -726,6 +726,9 @@
     <t>{"code":&amp;&amp;&amp;code&amp;&amp;&amp;}</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': '9ef98adcdf21453981fcd27d55413ed1'}</t>
   </si>
   <si>
@@ -832,9 +835,6 @@
   </si>
   <si>
     <t>{"householdId":&amp;&amp;&amp;householdId&amp;&amp;&amp;}</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>营销活动跳转</t>
@@ -2981,10 +2981,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3099,7 +3099,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3113,30 +3151,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3158,51 +3181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3214,6 +3192,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3240,13 +3240,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,13 +3288,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3282,79 +3324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3366,7 +3336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3384,7 +3354,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3402,25 +3420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3458,30 +3458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3497,11 +3473,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3521,21 +3518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3543,6 +3525,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3554,10 +3554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -3566,16 +3566,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -3587,112 +3587,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="7">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4588,7 +4588,7 @@
         <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O2" t="s">
         <v>68</v>
@@ -4632,7 +4632,7 @@
         <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O3" t="s">
         <v>282</v>
@@ -4740,7 +4740,7 @@
         <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>66</v>
@@ -5024,7 +5024,7 @@
         <v>293</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>66</v>
@@ -5258,7 +5258,7 @@
         <v>293</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>66</v>
@@ -5492,7 +5492,7 @@
         <v>293</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>66</v>
@@ -5732,7 +5732,7 @@
         <v>379</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>66</v>
@@ -5770,7 +5770,7 @@
         <v>383</v>
       </c>
       <c r="H32" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>66</v>
@@ -6010,7 +6010,7 @@
         <v>401</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>66</v>
@@ -6048,7 +6048,7 @@
         <v>383</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>66</v>
@@ -6288,7 +6288,7 @@
         <v>423</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>66</v>
@@ -6566,7 +6566,7 @@
         <v>444</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>66</v>
@@ -6604,7 +6604,7 @@
         <v>383</v>
       </c>
       <c r="H53" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>66</v>
@@ -6888,7 +6888,7 @@
         <v>473</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>66</v>
@@ -6926,7 +6926,7 @@
         <v>383</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>66</v>
@@ -7160,7 +7160,7 @@
         <v>491</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>66</v>
@@ -7198,7 +7198,7 @@
         <v>383</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>66</v>
@@ -7804,7 +7804,7 @@
         <v>293</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>66</v>
@@ -7842,7 +7842,7 @@
         <v>537</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>66</v>
@@ -8283,7 +8283,7 @@
         <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>66</v>
@@ -8523,7 +8523,7 @@
         <v>293</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>66</v>
@@ -8561,7 +8561,7 @@
         <v>594</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>66</v>
@@ -8757,7 +8757,7 @@
         <v>612</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>66</v>
@@ -8795,7 +8795,7 @@
         <v>616</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>66</v>
@@ -8991,7 +8991,7 @@
         <v>629</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>66</v>
@@ -9029,7 +9029,7 @@
         <v>616</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>66</v>
@@ -9187,7 +9187,7 @@
         <v>642</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>66</v>
@@ -9225,7 +9225,7 @@
         <v>616</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>66</v>
@@ -9664,7 +9664,7 @@
         <v>683</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>66</v>
@@ -11998,7 +11998,7 @@
         <v>817</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>818</v>
@@ -12042,7 +12042,7 @@
         <v>817</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>66</v>
@@ -12080,7 +12080,7 @@
         <v>826</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>66</v>
@@ -12118,7 +12118,7 @@
         <v>817</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>66</v>
@@ -12156,7 +12156,7 @@
         <v>833</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>834</v>
@@ -12200,7 +12200,7 @@
         <v>839</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>66</v>
@@ -12238,7 +12238,7 @@
         <v>843</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>758</v>
@@ -12282,7 +12282,7 @@
         <v>847</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>66</v>
@@ -12320,7 +12320,7 @@
         <v>850</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>66</v>
@@ -12355,10 +12355,10 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>66</v>
@@ -12393,10 +12393,10 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>66</v>
@@ -12434,7 +12434,7 @@
         <v>859</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>66</v>
@@ -12475,7 +12475,7 @@
         <v>271</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>66</v>
@@ -12510,10 +12510,10 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>66</v>
@@ -12548,10 +12548,10 @@
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>66</v>
@@ -12586,10 +12586,10 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>66</v>
@@ -12624,10 +12624,10 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>66</v>
@@ -12662,10 +12662,10 @@
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>66</v>
@@ -12700,10 +12700,10 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>66</v>
@@ -12738,10 +12738,10 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>66</v>
@@ -12776,10 +12776,10 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>66</v>
@@ -12817,7 +12817,7 @@
         <v>890</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>66</v>
@@ -12855,7 +12855,7 @@
         <v>890</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>66</v>
@@ -12896,7 +12896,7 @@
         <v>271</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>66</v>
@@ -12934,7 +12934,7 @@
         <v>900</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>66</v>
@@ -12972,7 +12972,7 @@
         <v>189</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>173</v>
@@ -13016,7 +13016,7 @@
         <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>66</v>
@@ -13054,7 +13054,7 @@
         <v>909</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>66</v>
@@ -13092,7 +13092,7 @@
         <v>212</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>66</v>
@@ -13130,7 +13130,7 @@
         <v>915</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>200</v>
@@ -13174,7 +13174,7 @@
         <v>204</v>
       </c>
       <c r="H32" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>66</v>
@@ -13236,8 +13236,8 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -13323,7 +13323,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J2" t="s">
         <v>923</v>
@@ -32575,8 +32575,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -32789,6 +32789,9 @@
       <c r="F5" t="s">
         <v>230</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -32799,7 +32802,7 @@
         <v>220</v>
       </c>
       <c r="O5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>69</v>
@@ -32813,10 +32816,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -32825,7 +32828,7 @@
         <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H6" t="s">
         <v>65</v>
@@ -32938,10 +32941,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -32953,10 +32956,10 @@
         <v>65</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>66</v>
@@ -32965,7 +32968,7 @@
         <v>220</v>
       </c>
       <c r="O2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>69</v>
@@ -32979,10 +32982,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -32997,10 +33000,10 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>66</v>
@@ -33009,7 +33012,7 @@
         <v>220</v>
       </c>
       <c r="O3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>69</v>
@@ -33023,10 +33026,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -33035,25 +33038,25 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H4" t="s">
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>69</v>
@@ -33067,10 +33070,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -33079,7 +33082,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
         <v>65</v>
@@ -33088,7 +33091,7 @@
         <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O5" t="s">
         <v>68</v>
@@ -33105,10 +33108,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -33123,19 +33126,19 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>69</v>
@@ -33149,10 +33152,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -33161,7 +33164,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H7" t="s">
         <v>65</v>
@@ -33173,10 +33176,10 @@
         <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>69</v>
@@ -33190,10 +33193,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
@@ -33202,7 +33205,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H8" t="s">
         <v>65</v>
@@ -33211,7 +33214,7 @@
         <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O8" t="s">
         <v>68</v>
@@ -33228,10 +33231,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -33240,10 +33243,10 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -33252,7 +33255,7 @@
         <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O9" t="s">
         <v>186</v>
@@ -33287,14 +33290,14 @@
         <v>271</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="J10"/>
       <c r="M10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O10" t="s">
         <v>272</v>
@@ -33335,7 +33338,7 @@
         <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O11" t="s">
         <v>68</v>
